--- a/medicine/Mort/Cimetière_d'Ormesson-sur-Marne/Cimetière_d'Ormesson-sur-Marne.xlsx
+++ b/medicine/Mort/Cimetière_d'Ormesson-sur-Marne/Cimetière_d'Ormesson-sur-Marne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Ormesson-sur-Marne</t>
+          <t>Cimetière_d'Ormesson-sur-Marne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière d'Ormesson-sur-Marne est le cimetière communal de la ville d'Ormesson-sur-Marne dans le Val-de-Marne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière d'Ormesson-sur-Marne est le cimetière communal de la ville d'Ormesson-sur-Marne dans le Val-de-Marne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Ormesson-sur-Marne</t>
+          <t>Cimetière_d'Ormesson-sur-Marne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vaste cimetière moderne dont les allées se coupent à angle droit, ses tombes anciennes ont disparu, lui donnant un aspect fort monotone et toutes les chapelles funéraires ont été détruites. Dans un enclos reposent des membres de la famille Lefèvre d'Ormesson[2]. Seuls quelques arbres taillés ombragent les deux allées principales.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vaste cimetière moderne dont les allées se coupent à angle droit, ses tombes anciennes ont disparu, lui donnant un aspect fort monotone et toutes les chapelles funéraires ont été détruites. Dans un enclos reposent des membres de la famille Lefèvre d'Ormesson. Seuls quelques arbres taillés ombragent les deux allées principales.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Ormesson-sur-Marne</t>
+          <t>Cimetière_d'Ormesson-sur-Marne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Campion (1960-2010), fils de Marcel Campion
 Henri-François de Paule d'Ormesson (1751-1808), conseiller d'État et intendant des finances
 Wladimir d'Ormesson (1888-1973), ambassadeur de France, académicien
-			Tombe du comte Wladimir d'Ormesson et de sa famille[2].
+			Tombe du comte Wladimir d'Ormesson et de sa famille.
 			Monument aux morts.
 </t>
         </is>
